--- a/TestCase/每日练习功能验证用例.xlsx
+++ b/TestCase/每日练习功能验证用例.xlsx
@@ -190,11 +190,6 @@
     <t>二年级-每日练习功能验证</t>
   </si>
   <si>
-    <t>1.打开系统
-2. 点击“点击进入”按钮
-4.年级为二年级的用户,输入用户名和密码,点击"点击登录"按钮</t>
-  </si>
-  <si>
     <t>1.页面正常显示
 2.进入系统页面,页面正常显示,有"点击注册"和"点击登录"按钮
 3.进入系统,显示二年级的题目</t>
@@ -204,11 +199,6 @@
     <t>三年级-每日练习功能验证</t>
   </si>
   <si>
-    <t>1.打开系统
-2. 点击“点击进入”按钮
-5.年级为三年级的用户,输入用户名和密码,点击"点击登录"按钮</t>
-  </si>
-  <si>
     <t>1.页面正常显示
 2.进入系统页面,页面正常显示,有"点击注册"和"点击登录"按钮
 4.进入系统,显示三年级的题目</t>
@@ -217,11 +207,6 @@
     <t>四年级-每日练习功能验证</t>
   </si>
   <si>
-    <t>1.打开系统
-2. 点击“点击进入”按钮
-6.年级为四年级的用户,输入用户名和密码,点击"点击登录"按钮</t>
-  </si>
-  <si>
     <t>1.页面正常显示
 2.进入系统页面,页面正常显示,有"点击注册"和"点击登录"按钮
 5.进入系统,显示四年级的题目</t>
@@ -230,11 +215,6 @@
     <t>五年级-每日练习功能验证</t>
   </si>
   <si>
-    <t>1.打开系统
-2. 点击“点击进入”按钮
-7.年级为五年级的用户,输入用户名和密码,点击"点击登录"按钮</t>
-  </si>
-  <si>
     <t>1.页面正常显示
 2.进入系统页面,页面正常显示,有"点击注册"和"点击登录"按钮
 6.进入系统,显示五年级的题目</t>
@@ -243,11 +223,6 @@
     <t>六年级-每日练习功能验证</t>
   </si>
   <si>
-    <t>1.打开系统
-2. 点击“点击进入”按钮
-8.年级为六年级的用户,输入用户名和密码,点击"点击登录"按钮</t>
-  </si>
-  <si>
     <t>1.页面正常显示
 2.进入系统页面,页面正常显示,有"点击注册"和"点击登录"按钮
 7.进入系统,显示六年级的题目</t>
@@ -257,6 +232,856 @@
   </si>
   <si>
     <t>2016-10-14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">打开系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级为二年级的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入用户名和密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">打开系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级为三年级的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入用户名和密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">打开系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级为四年级的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入用户名和密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">打开系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级为五年级的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入用户名和密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">打开系统
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击进入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">按钮
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年级为六年级的用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输入用户名和密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>按钮</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -671,7 +1496,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -784,7 +1609,7 @@
         <v>24</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -805,10 +1630,10 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
@@ -832,7 +1657,7 @@
         <v>24</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
@@ -849,14 +1674,14 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="4" t="s">
@@ -880,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -897,14 +1722,14 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="4" t="s">
@@ -928,7 +1753,7 @@
         <v>24</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
@@ -945,14 +1770,14 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="4" t="s">
@@ -976,7 +1801,7 @@
         <v>24</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -993,14 +1818,14 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="4" t="s">
@@ -1024,7 +1849,7 @@
         <v>24</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
